--- a/docs/Bug Report.xlsx
+++ b/docs/Bug Report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Summary</t>
   </si>
@@ -176,6 +176,33 @@
   </si>
   <si>
     <t>Add validation on the fields from BE and FE</t>
+  </si>
+  <si>
+    <t>When adding a member via the UI the family and names are misplaced</t>
+  </si>
+  <si>
+    <t>Click on the add button, insert valid name and family and submit</t>
+  </si>
+  <si>
+    <t>The family name is placed in the name column and vice versa</t>
+  </si>
+  <si>
+    <t>Name value should be in the name column and family value should be in the family column</t>
+  </si>
+  <si>
+    <t>Sometimes the member is not added to the last row</t>
+  </si>
+  <si>
+    <t>Add several members</t>
+  </si>
+  <si>
+    <t>Some members are not added to the last row, occurs somtimes</t>
+  </si>
+  <si>
+    <t>The newly added member should always be added to the last row</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -449,10 +476,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.25"/>
-    <col customWidth="1" min="2" max="2" width="60.13"/>
+    <col customWidth="1" min="2" max="2" width="63.88"/>
     <col customWidth="1" min="3" max="3" width="83.75"/>
     <col customWidth="1" min="4" max="4" width="92.5"/>
-    <col customWidth="1" min="5" max="5" width="74.0"/>
+    <col customWidth="1" min="5" max="5" width="81.38"/>
+    <col customWidth="1" min="6" max="6" width="8.25"/>
     <col customWidth="1" min="7" max="7" width="19.88"/>
   </cols>
   <sheetData>
@@ -722,18 +750,44 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3"/>
